--- a/data_output/prism_passive/all_passive_out_licht_fas_strain_GM_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_fas_strain_GM_ind_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>4.058040784612877</v>
+        <v>4.0580406851593374</v>
       </c>
       <c r="C2">
-        <v>12.506513672874952</v>
+        <v>12.506513643140918</v>
       </c>
       <c r="D2">
-        <v>19.310781869925204</v>
+        <v>19.310781822444415</v>
       </c>
       <c r="E2">
-        <v>31.270178182199864</v>
+        <v>31.270178124679056</v>
       </c>
       <c r="F2">
-        <v>14.218321715684739</v>
+        <v>14.21832171768837</v>
       </c>
       <c r="G2">
-        <v>2.9659060084349762</v>
+        <v>2.9659059846331317</v>
       </c>
       <c r="H2">
-        <v>12.010963500204367</v>
+        <v>12.010963382918092</v>
       </c>
       <c r="I2">
-        <v>15.586476882263778</v>
+        <v>15.586476881648972</v>
       </c>
       <c r="J2">
-        <v>24.008650631574145</v>
+        <v>24.008650610940162</v>
       </c>
       <c r="K2">
-        <v>6.5521330140862668</v>
+        <v>6.5521329842018732</v>
       </c>
       <c r="L2">
-        <v>6.4816528239718574</v>
+        <v>6.4816527843428382</v>
       </c>
       <c r="M2">
-        <v>-9.5255556194895181</v>
+        <v>-9.525555661290964</v>
       </c>
       <c r="N2">
-        <v>17.291926543491478</v>
+        <v>17.291926515959013</v>
       </c>
       <c r="O2">
-        <v>14.558703416786212</v>
+        <v>14.558703381041807</v>
       </c>
       <c r="P2">
-        <v>21.975100121048996</v>
+        <v>21.975100053767047</v>
       </c>
       <c r="Q2">
-        <v>-4.8150936527899563E-2</v>
+        <v>-4.8150983557311899E-2</v>
       </c>
       <c r="R2">
-        <v>-7.3733077713065827</v>
+        <v>-7.3733077377562868</v>
       </c>
       <c r="S2">
-        <v>27.603329380575165</v>
+        <v>27.603329413233151</v>
       </c>
       <c r="T2">
-        <v>31.656034065762885</v>
+        <v>31.656034074454748</v>
       </c>
       <c r="U2">
-        <v>-1.9576197303342364</v>
+        <v>-1.9576197605606409</v>
       </c>
       <c r="V2">
-        <v>7.0468450020063909</v>
+        <v>7.0468449848258867</v>
       </c>
       <c r="W2">
-        <v>-12.7163126520599</v>
+        <v>-12.716312714600878</v>
       </c>
       <c r="X2">
-        <v>-9.7650018271409803E-2</v>
+        <v>-9.765005173420209E-2</v>
       </c>
       <c r="Y2">
-        <v>29.041626837553952</v>
+        <v>29.041626780413939</v>
       </c>
       <c r="Z2">
-        <v>15.811551230661369</v>
+        <v>15.811551191669501</v>
       </c>
       <c r="AA2">
-        <v>34.106450288670601</v>
+        <v>34.106450199956143</v>
       </c>
       <c r="AB2">
-        <v>24.104833558842078</v>
+        <v>24.104833426555146</v>
       </c>
       <c r="AC2">
-        <v>-0.62074483019030646</v>
+        <v>-0.62074482826548349</v>
       </c>
       <c r="AD2">
-        <v>35.309522438181091</v>
+        <v>35.309522293054407</v>
       </c>
       <c r="AE2">
-        <v>11.013607632050997</v>
+        <v>11.013607586770807</v>
       </c>
       <c r="AF2">
-        <v>19.523362056808065</v>
+        <v>19.523361981574368</v>
       </c>
       <c r="AG2">
-        <v>23.650237252208679</v>
+        <v>23.650237234689722</v>
       </c>
       <c r="AH2">
-        <v>21.346357812938592</v>
+        <v>21.346357761385462</v>
       </c>
       <c r="AI2">
-        <v>31.553035613171666</v>
+        <v>31.553035543145736</v>
       </c>
       <c r="AJ2">
-        <v>16.450839524226744</v>
+        <v>16.450839480767677</v>
       </c>
       <c r="AK2">
-        <v>23.260873216484338</v>
+        <v>23.260873157411183</v>
       </c>
       <c r="AL2">
-        <v>-5.9180786734218307</v>
+        <v>-5.9180786940303562</v>
       </c>
       <c r="AM2">
-        <v>21.830002771417849</v>
+        <v>21.830002680452989</v>
       </c>
       <c r="AN2">
-        <v>23.022547510188268</v>
+        <v>23.022547458895975</v>
       </c>
       <c r="AO2">
-        <v>37.41510827020555</v>
+        <v>37.415108177506475</v>
       </c>
       <c r="AP2">
-        <v>25.306503057918828</v>
+        <v>25.306503012561173</v>
       </c>
       <c r="AQ2">
-        <v>-8.2961493119541565</v>
+        <v>-8.2961493261296724</v>
       </c>
       <c r="AR2">
-        <v>30.573847659928475</v>
+        <v>30.573847642627129</v>
       </c>
       <c r="AS2">
-        <v>27.763527383343689</v>
+        <v>27.763527334656597</v>
       </c>
       <c r="AT2">
-        <v>10.171833378498738</v>
+        <v>10.171833330549337</v>
       </c>
       <c r="AU2">
-        <v>21.094817279054343</v>
+        <v>21.094817259304673</v>
       </c>
       <c r="AV2">
-        <v>7.1705442493714395</v>
+        <v>7.1705440646798904</v>
       </c>
       <c r="AW2">
-        <v>7.6237479189416657</v>
+        <v>7.6237478639133789</v>
       </c>
       <c r="AX2">
-        <v>23.630710403323864</v>
+        <v>23.63071034824031</v>
       </c>
       <c r="AY2">
-        <v>31.778143396573526</v>
+        <v>31.778143360802275</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>13.307714853780134</v>
+        <v>13.307714624248202</v>
       </c>
       <c r="C3">
-        <v>11.208899703315906</v>
+        <v>11.20889964562515</v>
       </c>
       <c r="D3">
-        <v>27.879234131696851</v>
+        <v>27.879233967006485</v>
       </c>
       <c r="E3">
-        <v>26.048233050354497</v>
+        <v>26.048233014108291</v>
       </c>
       <c r="F3">
-        <v>11.827205150772665</v>
+        <v>11.827205079233542</v>
       </c>
       <c r="G3">
-        <v>21.129022331427262</v>
+        <v>21.129022272486239</v>
       </c>
       <c r="H3">
-        <v>-4.8444689331867883</v>
+        <v>-4.8444689119820286</v>
       </c>
       <c r="I3">
-        <v>5.3611660229769589</v>
+        <v>5.3611659982215301</v>
       </c>
       <c r="J3">
-        <v>26.834442373471955</v>
+        <v>26.834442279424859</v>
       </c>
       <c r="K3">
-        <v>49.209472387820867</v>
+        <v>49.20947237291508</v>
       </c>
       <c r="L3">
-        <v>29.977365967731849</v>
+        <v>29.9773659049361</v>
       </c>
       <c r="M3">
-        <v>-0.47710080966115542</v>
+        <v>-0.47724536526997663</v>
       </c>
       <c r="N3">
-        <v>14.471734453334484</v>
+        <v>14.471734435433772</v>
       </c>
       <c r="O3">
-        <v>-21.58560644789107</v>
+        <v>-21.58560644127704</v>
       </c>
       <c r="P3">
-        <v>23.009220866048196</v>
+        <v>23.009220792695785</v>
       </c>
       <c r="Q3">
-        <v>9.5908116806928714</v>
+        <v>9.5908116222363056</v>
       </c>
       <c r="R3">
-        <v>-1.8565731369843852</v>
+        <v>-1.8565732042816296</v>
       </c>
       <c r="S3">
-        <v>25.327754823693443</v>
+        <v>25.32775477686662</v>
       </c>
       <c r="T3">
-        <v>31.3721155418534</v>
+        <v>31.372115494964191</v>
       </c>
       <c r="U3">
-        <v>12.809551700379149</v>
+        <v>12.809551653454964</v>
       </c>
       <c r="V3">
-        <v>17.818562263570676</v>
+        <v>17.818562285514648</v>
       </c>
       <c r="W3">
-        <v>2.7291693737827045</v>
+        <v>2.7291692825282601</v>
       </c>
       <c r="X3">
-        <v>-4.9732367760333558</v>
+        <v>-4.9732368020940303</v>
       </c>
       <c r="Y3">
-        <v>34.302238201315049</v>
+        <v>34.302238124530952</v>
       </c>
       <c r="Z3">
-        <v>17.880041212493726</v>
+        <v>17.880041171972593</v>
       </c>
       <c r="AA3">
-        <v>33.274913077578077</v>
+        <v>33.274913006263006</v>
       </c>
       <c r="AB3">
-        <v>25.51042875800789</v>
+        <v>25.510428692349784</v>
       </c>
       <c r="AC3">
-        <v>32.357601724113273</v>
+        <v>32.357601649899983</v>
       </c>
       <c r="AD3">
-        <v>33.315324763777923</v>
+        <v>33.315324725978684</v>
       </c>
       <c r="AE3">
-        <v>25.852923383044686</v>
+        <v>25.852923325904996</v>
       </c>
       <c r="AF3">
-        <v>19.809349839672972</v>
+        <v>19.809349763150667</v>
       </c>
       <c r="AG3">
-        <v>11.63171821971917</v>
+        <v>11.631718169542227</v>
       </c>
       <c r="AH3">
-        <v>3.4638342132809958</v>
+        <v>3.4638341740618022</v>
       </c>
       <c r="AI3">
-        <v>64.000524036203842</v>
+        <v>64.000523979986113</v>
       </c>
       <c r="AJ3">
-        <v>36.284611347493325</v>
+        <v>36.28461125558016</v>
       </c>
       <c r="AK3">
-        <v>23.05305229188296</v>
+        <v>23.053052227984086</v>
       </c>
       <c r="AL3">
-        <v>12.151421384023799</v>
+        <v>12.151421341405058</v>
       </c>
       <c r="AM3">
-        <v>18.216853675740705</v>
+        <v>18.216853546741003</v>
       </c>
       <c r="AN3">
-        <v>-16.704512553706472</v>
+        <v>-16.704512584540517</v>
       </c>
       <c r="AO3">
-        <v>33.303398831255208</v>
+        <v>33.303398712574214</v>
       </c>
       <c r="AP3">
-        <v>5.755161436171246</v>
+        <v>5.7551613688433454</v>
       </c>
       <c r="AQ3">
-        <v>18.5285975242323</v>
+        <v>18.528597481291609</v>
       </c>
       <c r="AR3">
-        <v>42.050409581477695</v>
+        <v>42.050409531549114</v>
       </c>
       <c r="AS3">
-        <v>24.923753269958024</v>
+        <v>24.923753243914692</v>
       </c>
       <c r="AT3">
-        <v>15.597996261620093</v>
+        <v>15.5979962106674</v>
       </c>
       <c r="AU3">
-        <v>11.841680866095206</v>
+        <v>11.841680853106718</v>
       </c>
       <c r="AV3">
-        <v>6.4619238572164424</v>
+        <v>6.4619237457159624</v>
       </c>
       <c r="AW3">
-        <v>2.1246597998530827</v>
+        <v>2.1246597425750262</v>
       </c>
       <c r="AX3">
-        <v>14.370212427714762</v>
+        <v>14.37021238844185</v>
       </c>
       <c r="AY3">
-        <v>36.381986772717873</v>
+        <v>36.381986716235367</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_licht_fas_strain_GM_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_fas_strain_GM_ind_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,62 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>4.0580406851593374</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>12.506513643140918</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>19.310781822444415</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>31.270178124679056</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>14.21832171768837</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>2.9659059846331317</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>12.010963382918092</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>15.586476881648972</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>24.008650610940162</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>6.5521329842018732</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>6.4816527843428382</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>-9.525555661290964</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>17.291926515959013</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>14.558703381041807</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>21.975100053767047</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>-4.8150983557311899E-2</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>-7.3733077377562868</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>27.603329413233151</v>
+        <v>16.913587728841161</v>
       </c>
       <c r="T2">
         <v>31.656034074454748</v>
@@ -588,55 +477,55 @@
         <v>15.811551191669501</v>
       </c>
       <c r="AA2">
-        <v>34.106450199956143</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>24.104833426555146</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>-0.62074482826548349</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>35.309522293054407</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>11.013607586770807</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>19.523361981574368</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>23.650237234689722</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>21.346357761385462</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>31.553035543145736</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>16.450839480767677</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>23.260873157411183</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>-5.9180786940303562</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>21.830002680452989</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>23.022547458895975</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>37.415108177506475</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>25.306503012561173</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>-8.2961493261296724</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>30.573847642627129</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>13.307714624248202</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>11.20889964562515</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>27.879233967006485</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>26.048233014108291</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>11.827205079233542</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>21.129022272486239</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>-4.8444689119820286</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>5.3611659982215301</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>26.834442279424859</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>49.20947237291508</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>29.9773659049361</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>-0.47724536526997663</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>14.471734435433772</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>-21.58560644127704</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>23.009220792695785</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>9.5908116222363056</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>-1.8565732042816296</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>25.32775477686662</v>
@@ -743,55 +629,55 @@
         <v>17.880041171972593</v>
       </c>
       <c r="AA3">
-        <v>33.274913006263006</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>25.510428692349784</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>32.357601649899983</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>33.315324725978684</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>25.852923325904996</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>19.809349763150667</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>11.631718169542227</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>3.4638341740618022</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>64.000523979986113</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>36.28461125558016</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>23.053052227984086</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>12.151421341405058</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>18.216853546741003</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>-16.704512584540517</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>33.303398712574214</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>5.7551613688433454</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>18.528597481291609</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>42.050409531549114</v>

--- a/data_output/prism_passive/all_passive_out_licht_fas_strain_GM_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_fas_strain_GM_ind_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -517,17 +512,11 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>4.058040784612877</v>
-      </c>
       <c r="C2">
-        <v>9.1063291787378784</v>
-      </c>
-      <c r="D2">
-        <v>19.310781869925204</v>
+        <v>-7.3733077377562868</v>
       </c>
       <c r="E2">
-        <v>31.270178182199864</v>
+        <v>-8.2961493261296724</v>
       </c>
       <c r="F2">
         <v>14.218321715684739</v>
@@ -673,16 +662,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>13.307714853780134</v>
+        <v>-10.616310651571711</v>
       </c>
       <c r="C3">
-        <v>11.208899703315906</v>
+        <v>-1.8565732042816296</v>
       </c>
       <c r="D3">
-        <v>27.879234131696851</v>
+        <v>-15.401338659918059</v>
       </c>
       <c r="E3">
-        <v>26.048233050354497</v>
+        <v>20.513778672349321</v>
       </c>
       <c r="F3">
         <v>11.827205150772665</v>

--- a/data_output/prism_passive/all_passive_out_licht_fas_strain_GM_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_fas_strain_GM_ind_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>4.058040784612877</v>
-      </c>
-      <c r="C2">
-        <v>9.1063291787378784</v>
+        <v>17.375431314037488</v>
       </c>
       <c r="D2">
-        <v>19.310781869925204</v>
-      </c>
-      <c r="E2">
-        <v>31.270178182199864</v>
+        <v>25.424661903179029</v>
       </c>
       <c r="F2">
         <v>14.218321715684739</v>
@@ -664,16 +653,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>13.307714853780134</v>
+        <v>14.471734435433772</v>
       </c>
       <c r="C3">
-        <v>11.208899703315906</v>
+        <v>-10.616310651571711</v>
       </c>
       <c r="D3">
-        <v>27.879234131696851</v>
+        <v>18.216853546741003</v>
       </c>
       <c r="E3">
-        <v>35.902551396270468</v>
+        <v>-15.401338659918059</v>
       </c>
       <c r="F3">
         <v>11.827205150772665</v>

--- a/data_output/prism_passive/all_passive_out_licht_fas_strain_GM_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_fas_strain_GM_ind_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,139 +513,145 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>4.3322761316163083</v>
+      </c>
+      <c r="C2">
+        <v>9.1063290577089671</v>
+      </c>
+      <c r="D2">
+        <v>25.086004327618472</v>
+      </c>
+      <c r="E2">
+        <v>33.031311811432182</v>
+      </c>
+      <c r="F2">
+        <v>14.21832171768837</v>
+      </c>
+      <c r="G2">
+        <v>9.7825334165548803</v>
+      </c>
+      <c r="H2">
+        <v>12.579414112178203</v>
+      </c>
+      <c r="I2">
+        <v>22.766433393509004</v>
+      </c>
+      <c r="J2">
+        <v>24.272316428216829</v>
+      </c>
+      <c r="K2">
+        <v>8.3616121130934769</v>
+      </c>
+      <c r="L2">
+        <v>13.453977655872606</v>
+      </c>
+      <c r="M2">
+        <v>-4.6724894168778508E-2</v>
+      </c>
+      <c r="N2">
         <v>17.375431314037488</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>24.698759600761388</v>
+      </c>
+      <c r="Q2">
+        <v>-4.8150983557311899E-2</v>
+      </c>
+      <c r="R2">
+        <v>-7.3733077377562868</v>
+      </c>
+      <c r="T2">
+        <v>25.825270907765258</v>
+      </c>
+      <c r="U2">
+        <v>-0.35752934158969552</v>
+      </c>
+      <c r="V2">
+        <v>19.351928926110254</v>
+      </c>
+      <c r="W2">
+        <v>-6.2363471167561517</v>
+      </c>
+      <c r="X2">
+        <v>2.3320721333762608</v>
+      </c>
+      <c r="Y2">
+        <v>30.017154846432899</v>
+      </c>
+      <c r="Z2">
+        <v>15.811551191669501</v>
+      </c>
+      <c r="AA2">
+        <v>35.156391488321646</v>
+      </c>
+      <c r="AB2">
+        <v>24.104833426555146</v>
+      </c>
+      <c r="AC2">
+        <v>5.0377521324258083</v>
+      </c>
+      <c r="AD2">
+        <v>39.675351083652203</v>
+      </c>
+      <c r="AE2">
+        <v>11.013607586770807</v>
+      </c>
+      <c r="AF2">
+        <v>19.523361981574368</v>
+      </c>
+      <c r="AG2">
+        <v>23.687117733008431</v>
+      </c>
+      <c r="AH2">
+        <v>24.633050060247552</v>
+      </c>
+      <c r="AI2">
+        <v>32.198330249992516</v>
+      </c>
+      <c r="AJ2">
+        <v>20.543945118917843</v>
+      </c>
+      <c r="AK2">
+        <v>27.197323363641217</v>
+      </c>
+      <c r="AL2">
+        <v>-5.9180786940303562</v>
+      </c>
+      <c r="AM2">
         <v>25.424661903179029</v>
       </c>
-      <c r="F2">
-        <v>14.218321715684739</v>
-      </c>
-      <c r="G2">
-        <v>9.7825334693779666</v>
-      </c>
-      <c r="H2">
-        <v>12.010963500204367</v>
-      </c>
-      <c r="I2">
-        <v>22.658254747258901</v>
-      </c>
-      <c r="J2">
-        <v>24.008650631574145</v>
-      </c>
-      <c r="K2">
-        <v>6.5521330140862668</v>
-      </c>
-      <c r="L2">
-        <v>8.2195152593792535</v>
-      </c>
-      <c r="M2">
-        <v>-4.6724882117262383E-2</v>
-      </c>
-      <c r="N2">
-        <v>15.985895869009042</v>
-      </c>
-      <c r="P2">
-        <v>24.698759696642199</v>
-      </c>
-      <c r="Q2">
-        <v>-4.8150936527899563E-2</v>
-      </c>
-      <c r="R2">
-        <v>-7.3733077713065827</v>
-      </c>
-      <c r="T2">
-        <v>25.825270900330281</v>
-      </c>
-      <c r="U2">
-        <v>-1.9576197303342364</v>
-      </c>
-      <c r="V2">
-        <v>12.824669984706491</v>
-      </c>
-      <c r="W2">
-        <v>-12.684129380884704</v>
-      </c>
-      <c r="X2">
-        <v>-9.7650018271409803E-2</v>
-      </c>
-      <c r="Y2">
-        <v>29.041626837553952</v>
-      </c>
-      <c r="Z2">
-        <v>15.811551230661369</v>
-      </c>
-      <c r="AA2">
-        <v>34.106450288670601</v>
-      </c>
-      <c r="AB2">
-        <v>24.104833558842078</v>
-      </c>
-      <c r="AC2">
-        <v>-0.62074483019030646</v>
-      </c>
-      <c r="AD2">
-        <v>35.309522438181091</v>
-      </c>
-      <c r="AE2">
-        <v>11.013607632050997</v>
-      </c>
-      <c r="AF2">
-        <v>19.523362056808065</v>
-      </c>
-      <c r="AG2">
-        <v>23.650237252208679</v>
-      </c>
-      <c r="AH2">
-        <v>21.346357812938592</v>
-      </c>
-      <c r="AI2">
-        <v>31.553035613171666</v>
-      </c>
-      <c r="AJ2">
-        <v>16.450839524226744</v>
-      </c>
-      <c r="AK2">
-        <v>23.260873216484338</v>
-      </c>
-      <c r="AL2">
-        <v>-5.9180786734218307</v>
-      </c>
-      <c r="AM2">
-        <v>21.830002771417849</v>
-      </c>
       <c r="AO2">
-        <v>37.41510827020555</v>
+        <v>37.415108177506475</v>
       </c>
       <c r="AP2">
-        <v>29.122602016396421</v>
+        <v>29.122601960108664</v>
       </c>
       <c r="AQ2">
-        <v>-8.2961493119541565</v>
+        <v>-8.2961493261296724</v>
       </c>
       <c r="AR2">
-        <v>30.573847659928475</v>
+        <v>31.096898030242986</v>
       </c>
       <c r="AS2">
-        <v>27.763527383343689</v>
+        <v>27.763527334656597</v>
       </c>
       <c r="AT2">
-        <v>10.171833378498738</v>
+        <v>12.24203506634087</v>
       </c>
       <c r="AU2">
-        <v>10.442704674277776</v>
+        <v>12.571698133853889</v>
       </c>
       <c r="AV2">
-        <v>7.2567202368541501</v>
+        <v>21.480576097922906</v>
       </c>
       <c r="AW2">
-        <v>7.6237479189416657</v>
+        <v>10.739686994984741</v>
       </c>
       <c r="AX2">
-        <v>23.630710403323864</v>
+        <v>24.81403566302393</v>
       </c>
       <c r="AY2">
-        <v>31.778143396573526</v>
+        <v>31.778143360802275</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -653,154 +659,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>13.307714624248202</v>
+      </c>
+      <c r="C3">
+        <v>12.98801960682068</v>
+      </c>
+      <c r="D3">
+        <v>27.879233967006485</v>
+      </c>
+      <c r="E3">
+        <v>35.902551322461854</v>
+      </c>
+      <c r="F3">
+        <v>13.469861654730108</v>
+      </c>
+      <c r="G3">
+        <v>22.820270646871922</v>
+      </c>
+      <c r="H3">
+        <v>-4.8444689119820286</v>
+      </c>
+      <c r="I3">
+        <v>5.3611659982215301</v>
+      </c>
+      <c r="J3">
+        <v>26.834442279424859</v>
+      </c>
+      <c r="K3">
+        <v>39.983741969845504</v>
+      </c>
+      <c r="L3">
+        <v>29.9773659049361</v>
+      </c>
+      <c r="M3">
+        <v>-4.5865540726101512</v>
+      </c>
+      <c r="N3">
         <v>14.471734435433772</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>-10.616310651571711</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>24.320246507597325</v>
+      </c>
+      <c r="Q3">
+        <v>10.508873493099712</v>
+      </c>
+      <c r="R3">
+        <v>4.2433121598778625</v>
+      </c>
+      <c r="S3">
+        <v>25.32775477686662</v>
+      </c>
+      <c r="T3">
+        <v>32.317783039668555</v>
+      </c>
+      <c r="U3">
+        <v>12.809551653454964</v>
+      </c>
+      <c r="V3">
+        <v>20.933072568167372</v>
+      </c>
+      <c r="W3">
+        <v>2.7866848318746524</v>
+      </c>
+      <c r="X3">
+        <v>-4.9732368020940303</v>
+      </c>
+      <c r="Y3">
+        <v>34.302238124530952</v>
+      </c>
+      <c r="Z3">
+        <v>18.248289637957406</v>
+      </c>
+      <c r="AA3">
+        <v>33.274913006263006</v>
+      </c>
+      <c r="AB3">
+        <v>29.3966287866103</v>
+      </c>
+      <c r="AC3">
+        <v>32.357601649899983</v>
+      </c>
+      <c r="AD3">
+        <v>33.315324725978684</v>
+      </c>
+      <c r="AE3">
+        <v>28.192224385969837</v>
+      </c>
+      <c r="AF3">
+        <v>21.667308451788049</v>
+      </c>
+      <c r="AG3">
+        <v>11.631718169542227</v>
+      </c>
+      <c r="AH3">
+        <v>3.4638341740618022</v>
+      </c>
+      <c r="AI3">
+        <v>27.37196772839836</v>
+      </c>
+      <c r="AJ3">
+        <v>36.28461125558016</v>
+      </c>
+      <c r="AK3">
+        <v>23.053052227984086</v>
+      </c>
+      <c r="AL3">
+        <v>16.288232585892683</v>
+      </c>
+      <c r="AM3">
         <v>18.216853546741003</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>-15.401338659918059</v>
       </c>
-      <c r="F3">
-        <v>11.827205150772665</v>
-      </c>
-      <c r="G3">
-        <v>21.129022331427262</v>
-      </c>
-      <c r="H3">
-        <v>-4.8444689331867883</v>
-      </c>
-      <c r="I3">
-        <v>5.3611660229769589</v>
-      </c>
-      <c r="J3">
-        <v>26.834442373471955</v>
-      </c>
-      <c r="K3">
-        <v>39.983741980150683</v>
-      </c>
-      <c r="L3">
-        <v>29.977365967731849</v>
-      </c>
-      <c r="M3">
-        <v>-6.7251468665664875</v>
-      </c>
-      <c r="N3">
-        <v>14.471734453334484</v>
-      </c>
-      <c r="O3">
-        <v>-10.616310647529183</v>
-      </c>
-      <c r="P3">
-        <v>23.009220866048196</v>
-      </c>
-      <c r="Q3">
-        <v>9.5908116806928714</v>
-      </c>
-      <c r="R3">
-        <v>-1.8565731369843852</v>
-      </c>
-      <c r="S3">
-        <v>25.327754823693443</v>
-      </c>
-      <c r="T3">
-        <v>31.3721155418534</v>
-      </c>
-      <c r="U3">
-        <v>12.809551700379149</v>
-      </c>
-      <c r="V3">
-        <v>20.933072644743874</v>
-      </c>
-      <c r="W3">
-        <v>2.7866848591842523</v>
-      </c>
-      <c r="X3">
-        <v>-4.9732367760333558</v>
-      </c>
-      <c r="Y3">
-        <v>34.302238201315049</v>
-      </c>
-      <c r="Z3">
-        <v>17.880041212493726</v>
-      </c>
-      <c r="AA3">
-        <v>33.274913077578077</v>
-      </c>
-      <c r="AB3">
-        <v>25.51042875800789</v>
-      </c>
-      <c r="AC3">
-        <v>32.357601724113273</v>
-      </c>
-      <c r="AD3">
-        <v>33.315324763777923</v>
-      </c>
-      <c r="AE3">
-        <v>25.852923383044686</v>
-      </c>
-      <c r="AF3">
-        <v>19.809349839672972</v>
-      </c>
-      <c r="AG3">
-        <v>11.63171821971917</v>
-      </c>
-      <c r="AH3">
-        <v>3.4638342132809958</v>
-      </c>
-      <c r="AI3">
-        <v>27.371967827572551</v>
-      </c>
-      <c r="AJ3">
-        <v>36.284611347493325</v>
-      </c>
-      <c r="AK3">
-        <v>23.05305229188296</v>
-      </c>
-      <c r="AL3">
-        <v>12.151421384023799</v>
-      </c>
-      <c r="AM3">
-        <v>18.216853675740705</v>
-      </c>
-      <c r="AN3">
-        <v>-15.401338625981719</v>
-      </c>
       <c r="AO3">
-        <v>33.303398831255208</v>
+        <v>35.674118478977242</v>
       </c>
       <c r="AP3">
-        <v>5.755161436171246</v>
+        <v>6.7088591607736534</v>
       </c>
       <c r="AQ3">
-        <v>20.513778692314428</v>
+        <v>22.659194513281399</v>
       </c>
       <c r="AR3">
-        <v>42.050409581477695</v>
+        <v>42.050409531549114</v>
       </c>
       <c r="AS3">
-        <v>24.923753269958024</v>
+        <v>26.141171520350877</v>
       </c>
       <c r="AT3">
-        <v>15.597996261620093</v>
+        <v>15.5979962106674</v>
       </c>
       <c r="AU3">
-        <v>12.269426998532824</v>
+        <v>12.269426984570446</v>
       </c>
       <c r="AV3">
-        <v>6.5122402441710427</v>
+        <v>6.5122401391824054</v>
       </c>
       <c r="AW3">
-        <v>2.1246597998530827</v>
+        <v>2.1246597425750262</v>
       </c>
       <c r="AX3">
-        <v>14.370212427714762</v>
+        <v>14.37021238844185</v>
       </c>
       <c r="AY3">
-        <v>36.381986772717873</v>
+        <v>36.884021986762683</v>
       </c>
     </row>
   </sheetData>
